--- a/doc/schedule.xlsx
+++ b/doc/schedule.xlsx
@@ -439,10 +439,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユースケース図，ユースケース記述，ロバストネス図</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>第8回 - 
 第11回</t>
     <phoneticPr fontId="2"/>
@@ -475,48 +471,6 @@
   <si>
     <t>第0回, 
 第1回</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【設計（シーケンス図・クラス図）】の講義（９０分）（石田）
-プロダクトバックログ（４５分）＋スプリント計画，スプリントバックログ（細合）
-作成したいシステムのディスカッション &lt;&lt;宿題：要求分析書，ユースケース図&gt;&gt;</t>
-    <rPh sb="26" eb="28">
-      <t>イシダ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ケイカク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ホソアイ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>シュクダイ</t>
-    </rPh>
-    <rPh sb="93" eb="98">
-      <t>ヨウキュウブンセキショ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【設計（ユースケース図，ユースケース記述，ロバストネス図）】の講義（９０分）（亀井）
-作成したいシステムのディスカッション + 学びの目標</t>
-    <rPh sb="43" eb="45">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シーケンス図・クラス図</t>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ズ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1150,6 +1104,42 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【ロバストネス図，設計（シーケンス図・クラス図）】の講義（１８０分）（石田）
+作成したいシステムのディスカッション （時間があれば）</t>
+    <rPh sb="35" eb="37">
+      <t>イシダ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【設計（ユースケース図，ユースケース記述）】の講義（２００分）（亀井）
+作成したいシステムのディスカッション + 学びの目標</t>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面，ユースケース図，ドメインモデル，ユースケース記述</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロバストネス図・シーケンス図・クラス図</t>
+    <rPh sb="13" eb="14">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2438,7 +2428,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -2458,7 +2448,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.25" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -2514,34 +2504,34 @@
         <v>8</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="53">
       <c r="A4" s="69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4" s="13">
         <v>42109</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="J4" s="47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="55" customHeight="1">
@@ -2551,10 +2541,10 @@
         <v>42111</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="3"/>
@@ -2577,14 +2567,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="22"/>
       <c r="H6" s="5"/>
       <c r="I6" s="9"/>
       <c r="J6" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K6" s="3"/>
     </row>
@@ -2598,25 +2588,25 @@
         <v>1</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="23"/>
       <c r="H7" s="5"/>
       <c r="I7" s="24"/>
       <c r="J7" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="35" customHeight="1">
       <c r="A8" s="58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="18">
         <v>42123</v>
@@ -2644,19 +2634,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="5"/>
       <c r="H9" s="9" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="50" customHeight="1">
@@ -2666,17 +2656,17 @@
         <v>42131</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
@@ -2686,10 +2676,10 @@
     </row>
     <row r="11" spans="1:11" ht="41" customHeight="1">
       <c r="A11" s="58" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="39">
         <v>42132</v>
@@ -2708,7 +2698,7 @@
         <v>38</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2718,20 +2708,20 @@
         <v>42133</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2741,17 +2731,17 @@
         <v>42134</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K13" s="34"/>
     </row>
@@ -2765,14 +2755,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="37"/>
       <c r="H14" s="35"/>
       <c r="I14" s="34"/>
       <c r="J14" s="35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K14" s="34"/>
     </row>
@@ -2786,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="41"/>
@@ -2804,26 +2794,26 @@
         <v>42140</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
       <c r="J16" s="35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" ht="29" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" s="13">
         <v>42144</v>
@@ -2832,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G17" s="27">
         <v>0.61805555555555558</v>
@@ -2847,10 +2837,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" s="13">
         <v>42146</v>
@@ -2910,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="3"/>
@@ -2946,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G23" s="25">
         <v>0.69444444444444453</v>
@@ -2963,7 +2953,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="55" t="s">
         <v>20</v>
@@ -3093,7 +3083,7 @@
     </row>
     <row r="30" spans="1:11" ht="29">
       <c r="A30" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="51" t="s">
         <v>7</v>
@@ -3124,10 +3114,10 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C31" s="13">
         <v>42193</v>
@@ -3185,10 +3175,10 @@
     </row>
     <row r="34" spans="1:11" ht="29">
       <c r="A34" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C34" s="13">
         <v>42201</v>
@@ -3213,7 +3203,7 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3222,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>0</v>
@@ -3254,26 +3244,26 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="73" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C37" s="53">
         <v>42297</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E37" s="72" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F37" s="72"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
       <c r="I37" s="72"/>
       <c r="J37" s="72" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K37" s="72"/>
     </row>
@@ -3284,7 +3274,7 @@
         <v>42298</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E38" s="72"/>
       <c r="F38" s="72"/>
@@ -3301,7 +3291,7 @@
         <v>42299</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E39" s="72"/>
       <c r="F39" s="72"/>
@@ -3318,7 +3308,7 @@
         <v>42300</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E40" s="72"/>
       <c r="F40" s="72"/>
@@ -3389,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -3422,13 +3412,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="13">
         <v>42238</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="3"/>
@@ -3439,7 +3429,7 @@
         <v>42239</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="5"/>
@@ -3450,17 +3440,17 @@
         <v>42245</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="29">
       <c r="A7" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="21"/>
@@ -3468,47 +3458,47 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/doc/schedule.xlsx
+++ b/doc/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="115">
   <si>
     <t>水</t>
     <rPh sb="0" eb="1">
@@ -1139,6 +1139,28 @@
       <t>ズ</t>
     </rPh>
     <rPh sb="18" eb="19">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面（どんなことができるのかを把握できるように），ユースケース図，その他，授業で習った図もあれば</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1377,8 +1399,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1914,6 +1960,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1923,9 +2005,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1965,41 +2044,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="131">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -2061,6 +2107,10 @@
     <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -2123,6 +2173,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2427,8 +2481,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -2440,37 +2494,37 @@
     <col min="5" max="5" width="65.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -2508,10 +2562,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="53">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="67" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="13">
@@ -2535,8 +2589,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="55" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="13">
         <v>42111</v>
       </c>
@@ -2558,8 +2612,8 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="23" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="15">
         <v>42116</v>
       </c>
@@ -2579,8 +2633,8 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="71"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="19">
         <v>42118</v>
       </c>
@@ -2602,10 +2656,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="35" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="74" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="18">
@@ -2625,8 +2679,8 @@
       <c r="K8" s="49"/>
     </row>
     <row r="9" spans="1:11" ht="36" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="19">
         <v>42125</v>
       </c>
@@ -2650,8 +2704,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="50" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="13">
         <v>42131</v>
       </c>
@@ -2675,10 +2729,10 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="41" customHeight="1">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="77" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="39">
@@ -2702,8 +2756,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="58"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="32">
         <v>42133</v>
       </c>
@@ -2725,8 +2779,8 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="58"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="32">
         <v>42134</v>
       </c>
@@ -2746,8 +2800,8 @@
       <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="58"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="32">
         <v>42137</v>
       </c>
@@ -2767,8 +2821,8 @@
       <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" ht="17" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="67"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="39">
         <v>42139</v>
       </c>
@@ -2788,8 +2842,8 @@
       <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="58"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="32">
         <v>42140</v>
       </c>
@@ -2808,7 +2862,7 @@
       </c>
       <c r="K16" s="34"/>
     </row>
-    <row r="17" spans="1:11" ht="29" customHeight="1">
+    <row r="17" spans="1:11" ht="41">
       <c r="A17" s="10" t="s">
         <v>60</v>
       </c>
@@ -2830,16 +2884,18 @@
       <c r="G17" s="27">
         <v>0.61805555555555558</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="5"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="71" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="13">
@@ -2857,8 +2913,8 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="17" customHeight="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="13">
         <v>42151</v>
       </c>
@@ -2874,8 +2930,8 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="58"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="13">
         <v>42153</v>
       </c>
@@ -2891,8 +2947,8 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="29" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="13">
         <v>42158</v>
       </c>
@@ -2910,8 +2966,8 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="58"/>
-      <c r="B22" s="61"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="15">
         <v>42160</v>
       </c>
@@ -2927,8 +2983,8 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="41">
-      <c r="A23" s="58"/>
-      <c r="B23" s="62"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="13">
         <v>42165</v>
       </c>
@@ -2952,10 +3008,10 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="13">
@@ -2975,8 +3031,8 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="58"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="13">
         <v>42172</v>
       </c>
@@ -2994,8 +3050,8 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="14">
         <v>42174</v>
       </c>
@@ -3021,8 +3077,8 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="58"/>
-      <c r="B27" s="56"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="13">
         <v>42179</v>
       </c>
@@ -3040,8 +3096,8 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="29" customHeight="1">
-      <c r="A28" s="58"/>
-      <c r="B28" s="56"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="14">
         <v>42181</v>
       </c>
@@ -3063,8 +3119,8 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="29" customHeight="1">
-      <c r="A29" s="58"/>
-      <c r="B29" s="57"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="13">
         <v>42186</v>
       </c>
@@ -3113,10 +3169,10 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="62" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="13">
@@ -3136,8 +3192,8 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="58"/>
-      <c r="B32" s="81"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="13">
         <v>42195</v>
       </c>
@@ -3155,8 +3211,8 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="58"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="15">
         <v>42200</v>
       </c>
@@ -3207,17 +3263,17 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="58"/>
-      <c r="B35" s="78" t="s">
+      <c r="A35" s="61"/>
+      <c r="B35" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="55" t="s">
         <v>94</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="57" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="3"/>
@@ -3228,13 +3284,13 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="58"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="75"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="77"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="3"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -3243,10 +3299,10 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="65" t="s">
         <v>96</v>
       </c>
       <c r="C37" s="53">
@@ -3255,89 +3311,74 @@
       <c r="D37" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72" t="s">
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="K37" s="72"/>
+      <c r="K37" s="65"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="73"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="53">
         <v>42298</v>
       </c>
       <c r="D38" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="73"/>
-      <c r="B39" s="72"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="53">
         <v>42299</v>
       </c>
       <c r="D39" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="73"/>
-      <c r="B40" s="72"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="53">
         <v>42300</v>
       </c>
       <c r="D40" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
     </row>
     <row r="41" spans="1:11">
       <c r="B41" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="J37:J40"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="F37:F40"/>
     <mergeCell ref="B24:B29"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A1:J2"/>
@@ -3349,6 +3390,21 @@
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="J37:J40"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3378,20 +3434,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
@@ -3411,7 +3467,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="67" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="13">
@@ -3424,7 +3480,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="56"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="15">
         <v>42239</v>
       </c>
@@ -3435,7 +3491,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="57"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="19">
         <v>42245</v>
       </c>
